--- a/wechatmsg/20200310.xlsx
+++ b/wechatmsg/20200310.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>微信昵称</t>
   </si>
@@ -51,6 +51,33 @@
   </si>
   <si>
     <t>2020-03-10 10:18:49</t>
+  </si>
+  <si>
+    <t>2020-03-10 10:32:51</t>
+  </si>
+  <si>
+    <t>2020-03-10 10:46:30</t>
+  </si>
+  <si>
+    <t>2020-03-10 10:51:27</t>
+  </si>
+  <si>
+    <t>2020-03-10 10:51:37</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>2020-03-10 10:53:07</t>
+  </si>
+  <si>
+    <t>2020-03-10 10:54:42</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2020-03-10 10:55:02</t>
   </si>
 </sst>
 </file>
@@ -390,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +470,143 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
